--- a/엘리스 이벤트 정리 ver 0.1.xlsx
+++ b/엘리스 이벤트 정리 ver 0.1.xlsx
@@ -727,7 +727,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -876,9 +876,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -943,7 +941,9 @@
         <v>47</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">

--- a/엘리스 이벤트 정리 ver 0.1.xlsx
+++ b/엘리스 이벤트 정리 ver 0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -206,134 +206,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스타트뷰</t>
+  </si>
+  <si>
+    <t>몬스터소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화목록 14(엘리스 혼잣말)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화목록 15(현관문과 상호작용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현관문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0번 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 이벤트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 이벤트 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 및 특기사항 2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐에로 소개 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>삐에로는 웃지않아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삐에로 소개 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타트뷰</t>
-  </si>
-  <si>
-    <t>몬스터소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화목록 14(엘리스 혼잣말)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘리스방문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화목록 15(현관문과 상호작용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현관문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0번 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 이벤트 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상 이벤트 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 및 특기사항 2번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +727,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,19 +746,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>34</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -917,17 +917,17 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
@@ -947,7 +947,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -961,7 +961,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
@@ -970,7 +970,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -1192,11 +1192,11 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
